--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2525662.631139605</v>
+        <v>-2528582.993748055</v>
       </c>
     </row>
     <row r="7">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>22.35000765353327</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.29622749981507</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.86362115323885</v>
+        <v>22.350007653532</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>22.350007653532</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>22.350007653532</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>12.80984099951955</v>
       </c>
       <c r="X5" t="n">
-        <v>22.35000765353327</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>22.350007653532</v>
       </c>
       <c r="C6" t="n">
-        <v>22.35000765353327</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>22.350007653532</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>19.68588674123209</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>22.35000765353327</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>19.68588674123098</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19.68588674123209</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>19.68588674123098</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>22.350007653532</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.35000765353327</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
     </row>
     <row r="8">
@@ -1139,64 +1139,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>85.36012669354494</v>
       </c>
       <c r="G8" t="n">
+        <v>13.38870434448781</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>91.87278529632133</v>
-      </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,70 +1212,70 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>36.57392307749219</v>
+      </c>
+      <c r="S9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>62.17490796054056</v>
       </c>
       <c r="V9" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>98.74883103803275</v>
-      </c>
-      <c r="X10" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>4.264715073021239</v>
+        <v>178.7060423383821</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>57.65292080639785</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>217.1400386924122</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>197.2015488209271</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516577</v>
+        <v>91.93034877516565</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067862</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>250.9345864167827</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>264.0488580988286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>85.68348164116146</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189036</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.2453692453975</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>201.669800083563</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684678</v>
       </c>
       <c r="E17" t="n">
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1895,19 +1895,19 @@
         <v>60.32014642295177</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651969</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116146</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189036</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
@@ -2011,16 +2011,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2056,16 +2056,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998808</v>
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187931</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545723</v>
@@ -2138,7 +2138,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179206</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
         <v>317.630766365199</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>135.6366187464138</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545723</v>
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716152</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659984</v>
@@ -2959,16 +2959,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510301</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,16 +3004,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998808</v>
@@ -3038,7 +3038,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894955</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
         <v>378.5542040247498</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
@@ -3092,7 +3092,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262528</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,13 +3241,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,13 +3478,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179206</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038383</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.82426530753381</v>
+        <v>53.88503197468199</v>
       </c>
       <c r="C5" t="n">
-        <v>66.82426530753381</v>
+        <v>53.88503197468199</v>
       </c>
       <c r="D5" t="n">
-        <v>44.24850000093454</v>
+        <v>53.88503197468199</v>
       </c>
       <c r="E5" t="n">
-        <v>22.73715909203043</v>
+        <v>53.88503197468199</v>
       </c>
       <c r="F5" t="n">
-        <v>15.79165834282696</v>
+        <v>46.93953122547853</v>
       </c>
       <c r="G5" t="n">
-        <v>1.788000612282661</v>
+        <v>24.36376591888054</v>
       </c>
       <c r="H5" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="I5" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="J5" t="n">
-        <v>10.76756943937527</v>
+        <v>10.76756943937514</v>
       </c>
       <c r="K5" t="n">
-        <v>10.76756943937527</v>
+        <v>32.89407701637182</v>
       </c>
       <c r="L5" t="n">
-        <v>32.8940770163732</v>
+        <v>32.89407701637182</v>
       </c>
       <c r="M5" t="n">
-        <v>55.02058459337114</v>
+        <v>55.02058459336851</v>
       </c>
       <c r="N5" t="n">
-        <v>77.14709217036908</v>
+        <v>77.1470921703652</v>
       </c>
       <c r="O5" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="P5" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="R5" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="S5" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="T5" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="U5" t="n">
-        <v>89.40003061413307</v>
+        <v>66.82426530753003</v>
       </c>
       <c r="V5" t="n">
-        <v>89.40003061413307</v>
+        <v>66.82426530753003</v>
       </c>
       <c r="W5" t="n">
-        <v>89.40003061413307</v>
+        <v>53.88503197468199</v>
       </c>
       <c r="X5" t="n">
-        <v>66.82426530753381</v>
+        <v>53.88503197468199</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.82426530753381</v>
+        <v>53.88503197468199</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.24850000093454</v>
+        <v>24.36376591888054</v>
       </c>
       <c r="C6" t="n">
-        <v>21.67273469433528</v>
+        <v>24.36376591888054</v>
       </c>
       <c r="D6" t="n">
-        <v>21.67273469433528</v>
+        <v>24.36376591888054</v>
       </c>
       <c r="E6" t="n">
-        <v>21.67273469433528</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="F6" t="n">
-        <v>21.67273469433528</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="G6" t="n">
-        <v>21.67273469433528</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="H6" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="I6" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="J6" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="K6" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="L6" t="n">
-        <v>10.09022486912481</v>
+        <v>23.91450818927924</v>
       </c>
       <c r="M6" t="n">
-        <v>32.21673244612275</v>
+        <v>46.04101576627593</v>
       </c>
       <c r="N6" t="n">
-        <v>54.34324002312069</v>
+        <v>54.3432400231176</v>
       </c>
       <c r="O6" t="n">
-        <v>76.46974760011862</v>
+        <v>76.46974760011429</v>
       </c>
       <c r="P6" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="R6" t="n">
-        <v>66.82426530753381</v>
+        <v>66.82426530753003</v>
       </c>
       <c r="S6" t="n">
-        <v>66.82426530753381</v>
+        <v>66.82426530753003</v>
       </c>
       <c r="T6" t="n">
-        <v>44.24850000093454</v>
+        <v>66.82426530753003</v>
       </c>
       <c r="U6" t="n">
-        <v>44.24850000093454</v>
+        <v>46.93953122547853</v>
       </c>
       <c r="V6" t="n">
-        <v>44.24850000093454</v>
+        <v>46.93953122547853</v>
       </c>
       <c r="W6" t="n">
-        <v>44.24850000093454</v>
+        <v>46.93953122547853</v>
       </c>
       <c r="X6" t="n">
-        <v>44.24850000093454</v>
+        <v>46.93953122547853</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.24850000093454</v>
+        <v>46.93953122547853</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.67273469433528</v>
+        <v>21.67273469433406</v>
       </c>
       <c r="C7" t="n">
-        <v>1.788000612282661</v>
+        <v>21.67273469433406</v>
       </c>
       <c r="D7" t="n">
-        <v>1.788000612282661</v>
+        <v>21.67273469433406</v>
       </c>
       <c r="E7" t="n">
-        <v>1.788000612282661</v>
+        <v>21.67273469433406</v>
       </c>
       <c r="F7" t="n">
-        <v>1.788000612282661</v>
+        <v>21.67273469433406</v>
       </c>
       <c r="G7" t="n">
-        <v>1.788000612282661</v>
+        <v>21.67273469433406</v>
       </c>
       <c r="H7" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="I7" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="J7" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="K7" t="n">
-        <v>1.788000612282661</v>
+        <v>1.78800061228256</v>
       </c>
       <c r="L7" t="n">
-        <v>23.9145081892806</v>
+        <v>23.91450818927924</v>
       </c>
       <c r="M7" t="n">
-        <v>46.04101576627853</v>
+        <v>46.04101576627593</v>
       </c>
       <c r="N7" t="n">
-        <v>46.04101576627853</v>
+        <v>68.16752334327261</v>
       </c>
       <c r="O7" t="n">
-        <v>68.16752334327647</v>
+        <v>68.16752334327261</v>
       </c>
       <c r="P7" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.40003061413307</v>
+        <v>89.40003061412801</v>
       </c>
       <c r="R7" t="n">
-        <v>66.82426530753381</v>
+        <v>66.82426530753003</v>
       </c>
       <c r="S7" t="n">
-        <v>66.82426530753381</v>
+        <v>44.24850000093204</v>
       </c>
       <c r="T7" t="n">
-        <v>66.82426530753381</v>
+        <v>44.24850000093204</v>
       </c>
       <c r="U7" t="n">
-        <v>66.82426530753381</v>
+        <v>44.24850000093204</v>
       </c>
       <c r="V7" t="n">
-        <v>44.24850000093454</v>
+        <v>44.24850000093204</v>
       </c>
       <c r="W7" t="n">
-        <v>44.24850000093454</v>
+        <v>44.24850000093204</v>
       </c>
       <c r="X7" t="n">
-        <v>44.24850000093454</v>
+        <v>44.24850000093204</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.67273469433528</v>
+        <v>21.67273469433406</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.159624796494</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="C8" t="n">
-        <v>129.159624796494</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="D8" t="n">
-        <v>129.159624796494</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="E8" t="n">
-        <v>129.159624796494</v>
+        <v>108.7153067878047</v>
       </c>
       <c r="F8" t="n">
-        <v>122.2141240472905</v>
+        <v>22.49295659230481</v>
       </c>
       <c r="G8" t="n">
         <v>8.969012809993892</v>
@@ -4832,7 +4832,7 @@
         <v>448.4506404996946</v>
       </c>
       <c r="T8" t="n">
-        <v>335.205529262398</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="U8" t="n">
         <v>335.205529262398</v>
@@ -4841,13 +4841,13 @@
         <v>335.205529262398</v>
       </c>
       <c r="W8" t="n">
-        <v>242.4047360337906</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="X8" t="n">
-        <v>129.159624796494</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.159624796494</v>
+        <v>221.9604180251014</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.2141240472905</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C9" t="n">
         <v>122.2141240472905</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E9" t="n">
         <v>8.969012809993892</v>
@@ -4887,10 +4887,10 @@
         <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>65.44790611672062</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4905,28 +4905,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996946</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996946</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="V9" t="n">
-        <v>348.7043465218837</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="W9" t="n">
         <v>235.4592352845871</v>
       </c>
       <c r="X9" t="n">
-        <v>122.2141240472905</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="Y9" t="n">
-        <v>122.2141240472905</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="I10" t="n">
         <v>8.969012809993892</v>
@@ -4966,13 +4966,13 @@
         <v>85.67486684193852</v>
       </c>
       <c r="L10" t="n">
-        <v>85.67486684193852</v>
+        <v>196.6664003656129</v>
       </c>
       <c r="M10" t="n">
         <v>196.6664003656129</v>
       </c>
       <c r="N10" t="n">
-        <v>307.6579338892873</v>
+        <v>237.351669133195</v>
       </c>
       <c r="O10" t="n">
         <v>348.3432026568694</v>
@@ -4984,28 +4984,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R10" t="n">
-        <v>448.4506404996946</v>
+        <v>335.205529262398</v>
       </c>
       <c r="S10" t="n">
-        <v>448.4506404996946</v>
+        <v>335.205529262398</v>
       </c>
       <c r="T10" t="n">
-        <v>335.205529262398</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="U10" t="n">
-        <v>335.205529262398</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="V10" t="n">
-        <v>335.205529262398</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="W10" t="n">
-        <v>235.4592352845871</v>
+        <v>221.9604180251014</v>
       </c>
       <c r="X10" t="n">
+        <v>221.9604180251014</v>
+      </c>
+      <c r="Y10" t="n">
         <v>122.2141240472905</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.969012809993892</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1565.440264581601</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C11" t="n">
-        <v>1561.13247157855</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.866772971799</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373256</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906803</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645723</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.040104645723</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.4548862703364</v>
+        <v>627.5770176220484</v>
       </c>
       <c r="C13" t="n">
-        <v>363.5187033424295</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D13" t="n">
-        <v>213.4020639300938</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1486.194560241441</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>1231.510072035554</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W13" t="n">
-        <v>942.0929019985934</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X13" t="n">
-        <v>714.1033511005761</v>
+        <v>906.6048703073945</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.1033511005761</v>
+        <v>685.8122911638644</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>1866.026662509057</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1666.833178851555</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1308.567480244805</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>922.7792276465607</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>511.7933228569532</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347373</v>
+        <v>97.48584166810102</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810107</v>
+        <v>97.48584166810102</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599075</v>
+        <v>4156.161510599078</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632624</v>
+        <v>3953.532414632627</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423753</v>
+        <v>3700.063135423756</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080182</v>
+        <v>3369.000248080185</v>
       </c>
       <c r="W14" t="n">
-        <v>3369.000248080182</v>
+        <v>3016.231592810071</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>2642.765834548991</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2252.626502573179</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835858</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K15" t="n">
-        <v>519.59856033345</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277772</v>
+        <v>538.7790385694435</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277772</v>
+        <v>1059.517353866461</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.252537854179</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q15" t="n">
         <v>2530.879212293269</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>862.4723941904346</v>
+        <v>929.0092031464277</v>
       </c>
       <c r="C16" t="n">
-        <v>693.5362112625277</v>
+        <v>760.0730202185208</v>
       </c>
       <c r="D16" t="n">
-        <v>543.4195718501919</v>
+        <v>609.9563808061851</v>
       </c>
       <c r="E16" t="n">
-        <v>395.5064782677988</v>
+        <v>462.0432872237919</v>
       </c>
       <c r="F16" t="n">
-        <v>395.5064782677988</v>
+        <v>315.1533397258816</v>
       </c>
       <c r="G16" t="n">
-        <v>228.1467803857361</v>
+        <v>315.1533397258816</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511618</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869774</v>
+        <v>396.9405013869775</v>
       </c>
       <c r="L16" t="n">
         <v>763.5004667042031</v>
@@ -5449,10 +5449,10 @@
         <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
-        <v>1900.114228341784</v>
+        <v>1900.114228341785</v>
       </c>
       <c r="P16" t="n">
-        <v>2173.396928727845</v>
+        <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
         <v>2279.16862496767</v>
@@ -5461,25 +5461,25 @@
         <v>2279.16862496767</v>
       </c>
       <c r="S16" t="n">
-        <v>2093.462713255854</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>2093.462713255854</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="U16" t="n">
         <v>1804.378563040219</v>
       </c>
       <c r="V16" t="n">
-        <v>1600.671694268943</v>
+        <v>1549.694074834332</v>
       </c>
       <c r="W16" t="n">
-        <v>1311.254524231982</v>
+        <v>1260.276904797372</v>
       </c>
       <c r="X16" t="n">
-        <v>1083.264973333965</v>
+        <v>1032.287353899354</v>
       </c>
       <c r="Y16" t="n">
-        <v>862.4723941904346</v>
+        <v>1032.287353899354</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216582</v>
@@ -5501,64 +5501,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746736</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835858</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.59856033345</v>
+        <v>235.0538732027205</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277772</v>
+        <v>688.8525027970478</v>
       </c>
       <c r="M18" t="n">
-        <v>1428.524759781583</v>
+        <v>1237.770967407337</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>1815.626315333739</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="P18" t="n">
         <v>2322.031270281989</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042783</v>
@@ -5677,16 +5677,16 @@
         <v>459.528702044361</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028688</v>
@@ -5698,25 +5698,25 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
         <v>1784.429621497864</v>
@@ -5750,25 +5750,25 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767227</v>
@@ -5786,16 +5786,16 @@
         <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277775</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277775</v>
+        <v>936.9399229352697</v>
       </c>
       <c r="N21" t="n">
-        <v>1551.25253785418</v>
+        <v>1514.795270861672</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2021.200225809922</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2408.301781362078</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
         <v>140.057470989793</v>
@@ -5911,10 +5911,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443602</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902777</v>
+        <v>857.3827676902775</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040892</v>
@@ -5944,16 +5944,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162834</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6002,37 +6002,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6072,19 +6072,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277775</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538066</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2152.777327818392</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2539.878883370548</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6154,7 +6154,7 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N25" t="n">
         <v>1709.719201354972</v>
@@ -6181,16 +6181,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,13 +6224,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746738</v>
@@ -6239,7 +6239,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612703</v>
@@ -6251,25 +6251,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6382,16 +6382,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
@@ -6403,7 +6403,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352543</v>
@@ -6424,7 +6424,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6473,40 +6473,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>688.8525027970471</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1237.770967407336</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>1815.626315333739</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="P30" t="n">
         <v>2322.031270281989</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477733</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609063</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039819</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315403</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796674</v>
@@ -6704,13 +6704,13 @@
         <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233286</v>
@@ -6740,10 +6740,10 @@
         <v>3175.879079437412</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.315654538067</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N33" t="n">
-        <v>2100.171002464469</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P33" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C34" t="n">
         <v>735.8557341477718</v>
@@ -6850,7 +6850,7 @@
         <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511619</v>
@@ -6862,13 +6862,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6877,16 +6877,16 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7020,22 +7020,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277776</v>
+        <v>808.1559021931415</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P36" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042788</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
         <v>2392.455631028688</v>
@@ -7129,10 +7129,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073043</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951443</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050962</v>
@@ -7187,37 +7187,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7266,10 +7266,10 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315384</v>
@@ -7327,16 +7327,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040894</v>
@@ -7345,25 +7345,25 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
@@ -7397,16 +7397,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076836</v>
@@ -7424,16 +7424,16 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S41" t="n">
         <v>4188.091007924546</v>
@@ -7454,7 +7454,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>388.0214583249806</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L42" t="n">
-        <v>841.820087919308</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M42" t="n">
-        <v>1390.738552529597</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N42" t="n">
-        <v>1959.694692760353</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
@@ -7585,10 +7585,10 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
         <v>2487.049233352543</v>
@@ -7597,10 +7597,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,55 +7634,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
@@ -7719,25 +7719,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O45" t="n">
         <v>1934.929714729833</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
         <v>857.3827676902788</v>
@@ -7819,7 +7819,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
@@ -7834,19 +7834,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7982,10 +7982,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
-        <v>28.8362588753597</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09656339947136416</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
-        <v>47.4359690887577</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M4" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N4" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O4" t="n">
         <v>55.31770395088348</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>67.97297374871651</v>
+        <v>67.9729737487171</v>
       </c>
       <c r="K5" t="n">
-        <v>37.02885312542691</v>
+        <v>59.37886077895979</v>
       </c>
       <c r="L5" t="n">
-        <v>31.01306734358604</v>
+        <v>8.663059690053871</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>24.28626401914372</v>
+        <v>24.28626401914474</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.8973128487313</v>
+        <v>66.89731284873207</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.08997212928934</v>
+        <v>54.08997212928969</v>
       </c>
       <c r="K6" t="n">
-        <v>13.504110294046</v>
+        <v>13.50411029404661</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.69257035101244</v>
+        <v>41.69257035101292</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>54.01347304959992</v>
+        <v>54.01347304960029</v>
       </c>
       <c r="L7" t="n">
-        <v>61.26078050223798</v>
+        <v>61.2607805022372</v>
       </c>
       <c r="M7" t="n">
-        <v>60.08476696574785</v>
+        <v>60.08476696574708</v>
       </c>
       <c r="N7" t="n">
-        <v>28.9006162226113</v>
+        <v>51.25062387614379</v>
       </c>
       <c r="O7" t="n">
-        <v>69.56267606935843</v>
+        <v>47.21266841582562</v>
       </c>
       <c r="P7" t="n">
-        <v>81.10008740896735</v>
+        <v>81.10008740896653</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4537900083357</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4136727881176</v>
+        <v>37.39724374155968</v>
       </c>
       <c r="O10" t="n">
-        <v>58.19788920833449</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.99145537648747</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.3557120022016</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>181.5601078205192</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>364.2043958183152</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>361.0081766979863</v>
+        <v>186.5668494326254</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>122.1790593755395</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>69.07179951320072</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>168.0713429500804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>105.6822425796404</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>77.58661093653981</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674409</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442977</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>50.46784324026495</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.039390808422647e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.961097950697877e-12</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1408579.83203454</v>
+        <v>1408579.832034541</v>
       </c>
     </row>
     <row r="8">
@@ -26314,7 +26314,7 @@
         <v>38654.42660963807</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321417</v>
@@ -26323,37 +26323,37 @@
         <v>34099.70989709206</v>
       </c>
       <c r="F2" t="n">
-        <v>38337.15909756552</v>
+        <v>38337.15909756551</v>
       </c>
       <c r="G2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="H2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321426</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321421</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321414</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321413</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321415</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>314312.6682228162</v>
       </c>
       <c r="C3" t="n">
-        <v>36176.6495201944</v>
+        <v>36176.64952019238</v>
       </c>
       <c r="D3" t="n">
-        <v>129055.9169448054</v>
+        <v>129055.9169448073</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429536</v>
+        <v>707780.8576429534</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963072</v>
+        <v>215052.1096963079</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.1618817712</v>
+        <v>25288.16188177111</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.340237738797441e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5752.176769774553</v>
+        <v>5752.176769774342</v>
       </c>
       <c r="L3" t="n">
-        <v>48006.28135840776</v>
+        <v>48006.28135840796</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578618</v>
+        <v>56542.2935957862</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328632.5187030797</v>
+        <v>328632.5187030795</v>
       </c>
       <c r="C4" t="n">
-        <v>345093.2128805838</v>
+        <v>345093.2128805844</v>
       </c>
       <c r="D4" t="n">
         <v>304173.8599471605</v>
       </c>
       <c r="E4" t="n">
-        <v>13430.06689216532</v>
+        <v>13430.06689216537</v>
       </c>
       <c r="F4" t="n">
-        <v>13549.54182386384</v>
+        <v>13549.54182386388</v>
       </c>
       <c r="G4" t="n">
-        <v>44619.42690608395</v>
+        <v>44619.4269060839</v>
       </c>
       <c r="H4" t="n">
-        <v>44619.42690608394</v>
+        <v>44619.42690608391</v>
       </c>
       <c r="I4" t="n">
-        <v>44619.42690608394</v>
+        <v>44619.4269060839</v>
       </c>
       <c r="J4" t="n">
+        <v>44619.42690608387</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44619.42690608393</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44619.42690608402</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44619.42690608389</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44619.42690608396</v>
+      </c>
+      <c r="O4" t="n">
         <v>44619.42690608391</v>
       </c>
-      <c r="K4" t="n">
-        <v>44619.42690608394</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44619.42690608397</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>44619.42690608391</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44619.42690608391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44619.42690608392</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44619.42690608386</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26470,40 @@
         <v>40738.35521735115</v>
       </c>
       <c r="C5" t="n">
-        <v>42790.44871680743</v>
+        <v>42790.44871680732</v>
       </c>
       <c r="D5" t="n">
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060696</v>
+        <v>92448.99600060699</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215525</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-645029.1155336089</v>
+        <v>-645148.9986277876</v>
       </c>
       <c r="C6" t="n">
-        <v>-383008.2226243715</v>
+        <v>-383008.22262437</v>
       </c>
       <c r="D6" t="n">
-        <v>-443001.0615104744</v>
+        <v>-443001.0615104763</v>
       </c>
       <c r="E6" t="n">
-        <v>-761417.5551994202</v>
+        <v>-761765.174129226</v>
       </c>
       <c r="F6" t="n">
-        <v>-282713.4884232125</v>
+        <v>-282849.2348929957</v>
       </c>
       <c r="G6" t="n">
-        <v>-123961.9343967962</v>
+        <v>-123961.9343967961</v>
       </c>
       <c r="H6" t="n">
         <v>-98673.77251502508</v>
       </c>
       <c r="I6" t="n">
+        <v>-98673.77251502496</v>
+      </c>
+      <c r="J6" t="n">
         <v>-98673.77251502493</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>-104425.9492847994</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-146680.0538734331</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-277923.4174533265</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-155216.0661108113</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-98673.77251502502</v>
+      </c>
+      <c r="P6" t="n">
         <v>-98673.77251502508</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-104425.9492847995</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-146680.0538734328</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-277923.4174533266</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-155216.0661108112</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-98673.772515025</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-98673.77251502509</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>357.9801950216795</v>
+        <v>357.9801950216778</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985022</v>
@@ -26747,10 +26747,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1278.159870620122</v>
+        <v>1278.159870620123</v>
       </c>
       <c r="G3" t="n">
-        <v>1278.159870620122</v>
+        <v>1278.159870620123</v>
       </c>
       <c r="H3" t="n">
         <v>1278.159870620123</v>
@@ -26790,25 +26790,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="I4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
         <v>1062.255112188953</v>
@@ -26823,7 +26823,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>31.79876303309476</v>
+        <v>31.798763033093</v>
       </c>
       <c r="D3" t="n">
-        <v>118.1355561768227</v>
+        <v>118.1355561768244</v>
       </c>
       <c r="E3" t="n">
-        <v>613.660949394796</v>
+        <v>613.6609493947958</v>
       </c>
       <c r="F3" t="n">
-        <v>188.383170026824</v>
+        <v>188.3831700268245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,46 +27012,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="D4" t="n">
-        <v>89.7626524713904</v>
+        <v>89.76265247139166</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773688</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866594</v>
+        <v>230.8536567866602</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.35000765353328</v>
+        <v>22.35000765353246</v>
       </c>
       <c r="L4" t="n">
-        <v>89.76265247139015</v>
+        <v>89.76265247139099</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866596</v>
+        <v>230.8536567866597</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="L4" t="n">
-        <v>89.7626524713904</v>
+        <v>89.76265247139166</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773688</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866594</v>
+        <v>230.8536567866602</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,10 +27430,10 @@
         <v>179.1392278518137</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407503367447</v>
+        <v>69.68064251622548</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>5.52670486015387</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>332.3330339671497</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>360.6341425724467</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>391.5136134997068</v>
       </c>
       <c r="H5" t="n">
-        <v>324.7364516744977</v>
+        <v>302.3864440209658</v>
       </c>
       <c r="I5" t="n">
-        <v>154.9943560284027</v>
+        <v>154.994356028403</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>59.46922477318755</v>
+        <v>59.46922477318799</v>
       </c>
       <c r="S5" t="n">
-        <v>176.2262054895357</v>
+        <v>176.2262054895359</v>
       </c>
       <c r="T5" t="n">
         <v>216.7961176899308</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2305235988848</v>
+        <v>228.8805159453528</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>336.4311277178934</v>
       </c>
       <c r="X5" t="n">
-        <v>347.3810930249358</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>144.1831759963353</v>
       </c>
       <c r="C6" t="n">
-        <v>150.3584913347825</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>135.2950728018689</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.5735220267489</v>
       </c>
       <c r="H6" t="n">
-        <v>85.11302551943666</v>
+        <v>104.7989122606688</v>
       </c>
       <c r="I6" t="n">
-        <v>62.8858353899039</v>
+        <v>62.88583538990403</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>30.00058460545988</v>
+        <v>30.00058460546138</v>
       </c>
       <c r="S6" t="n">
-        <v>157.3808491612264</v>
+        <v>157.3808491612265</v>
       </c>
       <c r="T6" t="n">
-        <v>174.7111002938834</v>
+        <v>197.0611079474167</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8907245062076</v>
+        <v>206.2048377649766</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>147.5609343573958</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3454413018623</v>
       </c>
       <c r="H7" t="n">
-        <v>156.4877523315182</v>
+        <v>136.8018655902873</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0373850070662</v>
+        <v>136.0373850070663</v>
       </c>
       <c r="J7" t="n">
-        <v>47.71963951530226</v>
+        <v>47.71963951530248</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.10703380342078</v>
+        <v>32.10703380342104</v>
       </c>
       <c r="R7" t="n">
-        <v>125.917645287944</v>
+        <v>125.9176452879454</v>
       </c>
       <c r="S7" t="n">
-        <v>212.7666302688319</v>
+        <v>190.4166226153</v>
       </c>
       <c r="T7" t="n">
         <v>225.1873813682784</v>
@@ -27831,7 +27831,7 @@
         <v>286.2838181897674</v>
       </c>
       <c r="V7" t="n">
-        <v>229.7876356702947</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.2346456985615</v>
+        <v>196.2346456985628</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8177099473381</v>
       </c>
       <c r="F8" t="n">
+        <v>321.5159190481665</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27904,19 +27904,19 @@
         <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>102.6045092346994</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1925302541847</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>257.3681834210917</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,13 +27932,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339209</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047729</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>40.54833922112496</v>
       </c>
       <c r="T9" t="n">
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>163.6990992499816</v>
       </c>
       <c r="V9" t="n">
-        <v>134.0517561113925</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.582323035996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>93.66032507855383</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28029,7 +28029,7 @@
         <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>17.51829177012732</v>
       </c>
       <c r="J10" t="n">
         <v>32.65832442698833</v>
@@ -28056,7 +28056,7 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>26.5763295239214</v>
       </c>
       <c r="S10" t="n">
         <v>209.0540751673406</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>187.7741672985583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>113.5969952641135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.4719932271711</v>
+        <v>119.835822314062</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221289</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221275</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.6102023522127</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221275</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522148</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221594</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221628</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605694</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221343</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221531</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522148</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
   </sheetData>
@@ -31057,7 +31057,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M2" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -31206,19 +31206,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J4" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K4" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L4" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M4" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N4" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O4" t="n">
         <v>83.13883450095931</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.439116361896198</v>
+        <v>1.439116361896191</v>
       </c>
       <c r="H5" t="n">
-        <v>14.73835044126944</v>
+        <v>14.73835044126937</v>
       </c>
       <c r="I5" t="n">
-        <v>55.48153354200323</v>
+        <v>55.48153354200296</v>
       </c>
       <c r="J5" t="n">
-        <v>122.1432023204876</v>
+        <v>122.1432023204869</v>
       </c>
       <c r="K5" t="n">
-        <v>183.0609979195536</v>
+        <v>183.0609979195528</v>
       </c>
       <c r="L5" t="n">
-        <v>227.1033552799345</v>
+        <v>227.1033552799334</v>
       </c>
       <c r="M5" t="n">
-        <v>252.696240880806</v>
+        <v>252.6962408808047</v>
       </c>
       <c r="N5" t="n">
-        <v>251.7630712501242</v>
+        <v>251.7630712501229</v>
       </c>
       <c r="O5" t="n">
-        <v>242.4749169204382</v>
+        <v>242.474916920437</v>
       </c>
       <c r="P5" t="n">
-        <v>206.9467317361258</v>
+        <v>206.9467317361248</v>
       </c>
       <c r="Q5" t="n">
-        <v>155.4083770257182</v>
+        <v>155.4083770257174</v>
       </c>
       <c r="R5" t="n">
-        <v>90.39989316796213</v>
+        <v>90.39989316796169</v>
       </c>
       <c r="S5" t="n">
-        <v>32.79386409670965</v>
+        <v>32.79386409670948</v>
       </c>
       <c r="T5" t="n">
-        <v>6.29973187420061</v>
+        <v>6.299731874200579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1151293089516958</v>
+        <v>0.1151293089516953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7699951364617259</v>
+        <v>0.769995136461722</v>
       </c>
       <c r="H6" t="n">
-        <v>7.436531975827722</v>
+        <v>7.436531975827685</v>
       </c>
       <c r="I6" t="n">
-        <v>26.51079746151118</v>
+        <v>26.51079746151105</v>
       </c>
       <c r="J6" t="n">
-        <v>72.74765453737736</v>
+        <v>72.747654537377</v>
       </c>
       <c r="K6" t="n">
-        <v>124.337328680313</v>
+        <v>124.3373286803124</v>
       </c>
       <c r="L6" t="n">
-        <v>146.9404648877955</v>
+        <v>160.9043874334062</v>
       </c>
       <c r="M6" t="n">
-        <v>164.4840415755516</v>
+        <v>164.4840415755503</v>
       </c>
       <c r="N6" t="n">
-        <v>153.6917197368666</v>
+        <v>139.7277971912542</v>
       </c>
       <c r="O6" t="n">
-        <v>164.9462520979777</v>
+        <v>164.9462520979764</v>
       </c>
       <c r="P6" t="n">
-        <v>147.0352993476782</v>
+        <v>147.0352993476774</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.28920373500908</v>
+        <v>98.2892037350086</v>
       </c>
       <c r="R6" t="n">
-        <v>47.80724189364998</v>
+        <v>47.80724189364975</v>
       </c>
       <c r="S6" t="n">
-        <v>14.30232194261143</v>
+        <v>14.30232194261136</v>
       </c>
       <c r="T6" t="n">
-        <v>3.103620747404938</v>
+        <v>3.103620747404922</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05065757476721883</v>
+        <v>0.05065757476721858</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6455380565964712</v>
+        <v>0.645538056596468</v>
       </c>
       <c r="H7" t="n">
-        <v>5.739420175921357</v>
+        <v>5.739420175921329</v>
       </c>
       <c r="I7" t="n">
-        <v>19.41308992019207</v>
+        <v>19.41308992019197</v>
       </c>
       <c r="J7" t="n">
-        <v>45.63954060137051</v>
+        <v>45.63954060137029</v>
       </c>
       <c r="K7" t="n">
-        <v>74.99978512093546</v>
+        <v>74.99978512093509</v>
       </c>
       <c r="L7" t="n">
-        <v>95.97390343253358</v>
+        <v>95.97390343253309</v>
       </c>
       <c r="M7" t="n">
-        <v>101.1910246353905</v>
+        <v>101.19102463539</v>
       </c>
       <c r="N7" t="n">
-        <v>98.78492824262189</v>
+        <v>98.7849282426214</v>
       </c>
       <c r="O7" t="n">
-        <v>91.24387003601763</v>
+        <v>91.24387003601717</v>
       </c>
       <c r="P7" t="n">
-        <v>78.07489368144955</v>
+        <v>78.07489368144917</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.05500944827361</v>
+        <v>54.05500944827335</v>
       </c>
       <c r="R7" t="n">
-        <v>29.02573843569224</v>
+        <v>29.02573843569209</v>
       </c>
       <c r="S7" t="n">
-        <v>11.24996776814032</v>
+        <v>11.24996776814026</v>
       </c>
       <c r="T7" t="n">
-        <v>2.758208060003104</v>
+        <v>2.75820806000309</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03521116672344392</v>
+        <v>0.03521116672344375</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31607,13 +31607,13 @@
         <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>168.0758322358086</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171342</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879727</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I14" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383703</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171634</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869748</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654294</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117587</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565674</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829623</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q14" t="n">
         <v>554.881956697201</v>
@@ -32026,10 +32026,10 @@
         <v>117.0897208110796</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734506</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537073</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>26.551962595335</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781096</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247268</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155582</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>668.1323322018338</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160626</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>530.1489483592466</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892348</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691325</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>170.6946332877213</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486995</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
@@ -32151,16 +32151,16 @@
         <v>20.49246481092591</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051419</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151665</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692046</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M16" t="n">
         <v>361.3001745754552</v>
@@ -32172,7 +32172,7 @@
         <v>325.7840929246175</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381983</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636385</v>
@@ -32181,13 +32181,13 @@
         <v>103.6357167227397</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227497</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925529</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1257206430118154</v>
+        <v>0.1257206430118155</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171342</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879727</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383703</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171634</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869748</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654294</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117587</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565674</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829623</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q17" t="n">
         <v>554.881956697201</v>
@@ -32263,10 +32263,10 @@
         <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734506</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537073</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>26.551962595335</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781096</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247268</v>
+        <v>156.5246331351011</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155582</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M18" t="n">
-        <v>601.8588519561658</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578281</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892348</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691325</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>170.6946332877213</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486995</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
@@ -32388,16 +32388,16 @@
         <v>20.49246481092591</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051419</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151665</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692046</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M19" t="n">
         <v>361.3001745754552</v>
@@ -32409,7 +32409,7 @@
         <v>325.7840929246175</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381983</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
@@ -32418,13 +32418,13 @@
         <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227497</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925529</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1257206430118154</v>
+        <v>0.1257206430118155</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155583</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>555.1640776830034</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>263.7973608852043</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,34 +32780,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750705</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>155.9063265640424</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33029,25 +33029,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155584</v>
+        <v>472.9693813169756</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>211.6584993001651</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463138</v>
+        <v>442.4241216708505</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
@@ -33278,7 +33278,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>350.9392912691326</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33506,22 +33506,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>151.0727449683542</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33740,7 +33740,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155584</v>
+        <v>430.0264422644108</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
@@ -33749,16 +33749,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750701</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33986,13 +33986,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>211.6584993001651</v>
+        <v>391.712654391959</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34153,7 +34153,7 @@
         <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34208,31 +34208,31 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>435.5658729845059</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>706.0448840335913</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34366,10 +34366,10 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383702</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171643</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
         <v>810.867191086975</v>
@@ -34445,22 +34445,22 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>356.8015786407986</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>548.1235910649156</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.070271542517784</v>
+        <v>9.070271542517757</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>22.350007653532</v>
       </c>
       <c r="L5" t="n">
-        <v>22.35000765353327</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="N5" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="O5" t="n">
-        <v>12.37670549875151</v>
+        <v>12.37670549875031</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8.386085107921366</v>
+        <v>22.350007653532</v>
       </c>
       <c r="M6" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="N6" t="n">
-        <v>22.35000765353327</v>
+        <v>8.386085107920884</v>
       </c>
       <c r="O6" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="P6" t="n">
-        <v>13.06089193334793</v>
+        <v>13.06089193334719</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="M7" t="n">
-        <v>22.35000765353327</v>
+        <v>22.350007653532</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>22.350007653532</v>
       </c>
       <c r="O7" t="n">
-        <v>22.35000765353327</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>21.4469770412693</v>
+        <v>21.44697704126809</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>29.52145245593445</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694119</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35334,16 +35334,16 @@
         <v>77.4806606383279</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>41.0962310783657</v>
+      </c>
+      <c r="O10" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="N10" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="O10" t="n">
-        <v>41.0962310783657</v>
       </c>
       <c r="P10" t="n">
         <v>101.1186240836619</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721828</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L14" t="n">
         <v>575.1007761169876</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381567</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151679</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348807</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276927</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q14" t="n">
         <v>332.5762668227514</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503678</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>458.382454135684</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>525.9982982798155</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327293</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>387.5527039148022</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749045</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.957517183111</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375735</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.5957266671418</v>
+        <v>69.59572666714183</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892837</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372958</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488766</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386572</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030918</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119441</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721828</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169876</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381567</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151679</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348807</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276927</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q17" t="n">
         <v>332.5762668227514</v>
@@ -35963,28 +35963,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503678</v>
+        <v>18.68319416074207</v>
       </c>
       <c r="L18" t="n">
-        <v>458.382454135684</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M18" t="n">
-        <v>459.7248180341476</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133837</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749045</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.957517183111</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375735</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
         <v>507.6654448276929</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356841</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>412.5678332385589</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>123.8155867991828</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414966</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817337</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>460.073927130626</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>15.92455247802093</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895086</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010895</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36677,25 +36677,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356842</v>
+        <v>334.4150015371014</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>69.06225485572071</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908721</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36841,7 +36841,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151695</v>
       </c>
       <c r="O29" t="n">
         <v>635.6527791348809</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664396</v>
+        <v>303.8697418909763</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36926,7 +36926,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.9575171831111</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37154,22 +37154,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>8.938711046335936</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q35" t="n">
         <v>332.5762668227516</v>
@@ -37388,7 +37388,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356842</v>
+        <v>291.4720624845367</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37397,16 +37397,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306256</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.966552622204722e-12</v>
       </c>
       <c r="J38" t="n">
         <v>255.0635279116842</v>
@@ -37634,13 +37634,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>69.06225485572071</v>
+        <v>249.1164099475146</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908707</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37792,7 +37792,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348821</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
         <v>507.665444827693</v>
@@ -37801,7 +37801,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>297.0114932046317</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>574.703171950258</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908721</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116839</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169878</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>218.9601396664396</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>416.7818789815822</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
